--- a/FP_6_Evaluation.xlsx
+++ b/FP_6_Evaluation.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
-  <workbookPr date1904="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Repos\SFND_3D_Object_Tracking\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="19200" windowHeight="6960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Sheet1"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Sheet2"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Sheet3"</definedName>
   </definedNames>
-  <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
-  <webPublishing allowPng="1" css="0" characterSet="UTF-8"/>
+  <calcPr calcId="0" iterate="1"/>
+  <webPublishing css="0" allowPng="1" codePage="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="17">
   <si>
     <t>Frame</t>
   </si>
@@ -39,7 +38,7 @@
     <t>-inf</t>
   </si>
   <si>
-    <t>FAST </t>
+    <t>FAST</t>
   </si>
   <si>
     <t>BREIF</t>
@@ -54,35 +53,39 @@
     <t>FREAK</t>
   </si>
   <si>
-    <t>BRISK </t>
+    <t>BRISK</t>
   </si>
   <si>
-    <t>ORB </t>
+    <t>ORB</t>
   </si>
   <si>
     <t>AKAZE</t>
   </si>
   <si>
-    <t>AKAZE </t>
+    <t>AKAZE</t>
   </si>
   <si>
     <t>SHITOMASI</t>
+  </si>
+  <si>
+    <t>Detector</t>
+  </si>
+  <si>
+    <t>Descriptor</t>
+  </si>
+  <si>
+    <t>TTC Camera (s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
-      <vertAlign val="baseline"/>
-      <sz val="10"/>
-      <strike val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,80 +97,331 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
-        <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:F570"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D570"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0" tabSelected="1">
-      <selection activeCell="F40" sqref="F40:F56"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="H331" sqref="H331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="16.71328125" customWidth="1"/>
-    <col min="2" max="2" style="0" width="17.42752403846154" customWidth="1"/>
-    <col min="3" max="3" style="0" width="9.142307692307693"/>
-    <col min="4" max="4" style="1" width="18.998858173076925" customWidth="1"/>
-    <col min="5" max="5" style="0" width="9.142307692307693"/>
-    <col min="6" max="6" style="0" width="9.713701923076924" bestFit="1" customWidth="1"/>
-    <col min="7" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Detector </t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Descriptor </t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>TTC Camera (s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -178,10 +432,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>12.300000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -195,7 +449,7 @@
         <v>12.3453</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -209,7 +463,7 @@
         <v>16.616299999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -223,7 +477,7 @@
         <v>12.8857</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -237,7 +491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -251,7 +505,7 @@
         <v>13.038600000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -265,7 +519,7 @@
         <v>12.041</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -279,7 +533,7 @@
         <v>11.406599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -293,7 +547,7 @@
         <v>11.868399999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -307,7 +561,7 @@
         <v>13.347300000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -321,7 +575,7 @@
         <v>12.949199999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -335,7 +589,7 @@
         <v>12.1174</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -349,7 +603,7 @@
         <v>12.7784</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -363,7 +617,7 @@
         <v>11.607699999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -377,7 +631,7 @@
         <v>11.4079</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -391,7 +645,7 @@
         <v>12.256600000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -405,7 +659,7 @@
         <v>9.2933000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -419,7 +673,7 @@
         <v>11.8606</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -433,7 +687,7 @@
         <v>11.1897</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -447,7 +701,7 @@
         <v>13.0069</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -461,7 +715,7 @@
         <v>16.783899999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -475,7 +729,7 @@
         <v>13.661199999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -489,7 +743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -503,7 +757,7 @@
         <v>13.585599999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -517,7 +771,7 @@
         <v>12.2781</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -531,7 +785,7 @@
         <v>12.3643</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -545,7 +799,7 @@
         <v>13.9231</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -559,7 +813,7 @@
         <v>13.6593</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -573,7 +827,7 @@
         <v>15.151400000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -587,7 +841,7 @@
         <v>12.699400000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -601,7 +855,7 @@
         <v>12.6532</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -615,7 +869,7 @@
         <v>11.7034</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -629,7 +883,7 @@
         <v>12.607100000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -643,7 +897,7 @@
         <v>13.0069</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -657,7 +911,7 @@
         <v>9.9354600000000008</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -671,7 +925,7 @@
         <v>13.1706</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -685,7 +939,7 @@
         <v>12.2019</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -699,7 +953,7 @@
         <v>12.650600000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -713,7 +967,7 @@
         <v>16.626200000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -727,7 +981,7 @@
         <v>14.0688</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -741,7 +995,7 @@
         <v>199.15700000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -755,7 +1009,7 @@
         <v>55.9788</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -769,7 +1023,7 @@
         <v>12.3866</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -783,7 +1037,7 @@
         <v>11.976100000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -797,7 +1051,7 @@
         <v>12.8711</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -811,7 +1065,7 @@
         <v>16.232099999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -825,7 +1079,7 @@
         <v>14.1395</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -839,7 +1093,7 @@
         <v>12.9831</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -853,7 +1107,7 @@
         <v>12.914199999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -867,7 +1121,7 @@
         <v>11.296099999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -881,7 +1135,7 @@
         <v>10.7133</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -895,7 +1149,7 @@
         <v>11.800800000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -909,7 +1163,7 @@
         <v>11.9053</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -923,7 +1177,7 @@
         <v>13.7843</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -937,7 +1191,7 @@
         <v>12.5923</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -951,7 +1205,7 @@
         <v>12.9428</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -965,7 +1219,7 @@
         <v>22.750499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -979,7 +1233,7 @@
         <v>15.489699999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -993,7 +1247,7 @@
         <v>199.15700000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -1007,7 +1261,7 @@
         <v>13.9137</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1275,7 @@
         <v>12.2781</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1035,7 +1289,7 @@
         <v>12.6541</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -1049,7 +1303,7 @@
         <v>13.852</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -1063,7 +1317,7 @@
         <v>14.011200000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1331,7 @@
         <v>15.880100000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -1091,7 +1345,7 @@
         <v>12.773099999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -1105,7 +1359,7 @@
         <v>12.9215</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -1119,7 +1373,7 @@
         <v>12.879</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1387,7 @@
         <v>12.607100000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -1147,7 +1401,7 @@
         <v>12.7559</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -1161,7 +1415,7 @@
         <v>10.526400000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1429,7 @@
         <v>12.650600000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -1189,7 +1443,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -1203,7 +1457,7 @@
         <v>16.1387</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -1217,7 +1471,7 @@
         <v>13.2117</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -1231,7 +1485,7 @@
         <v>14.031599999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -1245,7 +1499,7 @@
         <v>74.606099999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -1259,7 +1513,7 @@
         <v>12.3292</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -1273,7 +1527,7 @@
         <v>12.753</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -1287,7 +1541,7 @@
         <v>11.5467</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1555,7 @@
         <v>13.0059</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1569,7 @@
         <v>13.4169</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -1329,7 +1583,7 @@
         <v>13.0192</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -1343,7 +1597,7 @@
         <v>12.0364</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -1357,7 +1611,7 @@
         <v>11.6599</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -1371,7 +1625,7 @@
         <v>11.348699999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -1385,7 +1639,7 @@
         <v>11.0296</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -1399,7 +1653,7 @@
         <v>12.101900000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -1413,7 +1667,7 @@
         <v>11.0677</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1681,7 @@
         <v>11.8606</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -1441,7 +1695,7 @@
         <v>13.031000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -1455,7 +1709,7 @@
         <v>23.102699999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -1469,7 +1723,7 @@
         <v>16.425999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -1483,7 +1737,7 @@
         <v>15.203099999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -1497,7 +1751,7 @@
         <v>25.186800000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -1511,7 +1765,7 @@
         <v>17.674299999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -1525,7 +1779,7 @@
         <v>16.856300000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -1539,7 +1793,7 @@
         <v>19.7242</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -1553,7 +1807,7 @@
         <v>14.9704</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1821,7 @@
         <v>13.412100000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -1581,7 +1835,7 @@
         <v>12.817600000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -1595,7 +1849,7 @@
         <v>11.0107</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -1609,7 +1863,7 @@
         <v>11.8505</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -1623,7 +1877,7 @@
         <v>12.037599999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -1637,7 +1891,7 @@
         <v>15.6929</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -1651,7 +1905,7 @@
         <v>11.296900000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -1665,7 +1919,7 @@
         <v>9.7010500000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -1679,7 +1933,7 @@
         <v>11.7318</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -1693,7 +1947,7 @@
         <v>14.1782</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -1707,7 +1961,7 @@
         <v>22.442699999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -1721,7 +1975,7 @@
         <v>16.202500000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -1735,7 +1989,7 @@
         <v>23.9696</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -1749,7 +2003,7 @@
         <v>18.2883</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -1763,7 +2017,7 @@
         <v>41.778599999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -1777,7 +2031,7 @@
         <v>23.114699999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -1791,7 +2045,7 @@
         <v>18.406400000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>2</v>
       </c>
@@ -1805,7 +2059,7 @@
         <v>20.206399999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -1819,7 +2073,7 @@
         <v>17.326499999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -1833,7 +2087,7 @@
         <v>21.316299999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -1847,7 +2101,7 @@
         <v>16.933299999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -1861,7 +2115,7 @@
         <v>14.636900000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -1875,7 +2129,7 @@
         <v>15.336499999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -1889,7 +2143,7 @@
         <v>11.054</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -1903,7 +2157,7 @@
         <v>14.576599999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -1917,7 +2171,7 @@
         <v>13.744999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -1931,7 +2185,7 @@
         <v>15.2896</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -1945,7 +2199,7 @@
         <v>18.0852</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -1959,7 +2213,7 @@
         <v>17.851400000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -1973,7 +2227,7 @@
         <v>18.119599999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -1987,7 +2241,7 @@
         <v>15.8995</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -2001,7 +2255,7 @@
         <v>19.143799999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -2015,7 +2269,7 @@
         <v>19.425599999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -2029,7 +2283,7 @@
         <v>17.900400000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -2043,7 +2297,7 @@
         <v>16.896999999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>2</v>
       </c>
@@ -2057,7 +2311,7 @@
         <v>14.9201</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -2071,7 +2325,7 @@
         <v>12.0845</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>2</v>
       </c>
@@ -2085,7 +2339,7 @@
         <v>13.2661</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -2099,7 +2353,7 @@
         <v>14.881500000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -2113,7 +2367,7 @@
         <v>11.6599</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -2127,7 +2381,7 @@
         <v>12.293900000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>2</v>
       </c>
@@ -2141,7 +2395,7 @@
         <v>11.616400000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -2155,7 +2409,7 @@
         <v>11.4475</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -2169,7 +2423,7 @@
         <v>12.4511</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -2183,7 +2437,7 @@
         <v>16.808199999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -2197,7 +2451,7 @@
         <v>12.3483</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -2211,7 +2465,7 @@
         <v>21.0838</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>2</v>
       </c>
@@ -2225,7 +2479,7 @@
         <v>13.5807</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -2239,7 +2493,7 @@
         <v>13.8293</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>2</v>
       </c>
@@ -2253,7 +2507,7 @@
         <v>22.305700000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>2</v>
       </c>
@@ -2267,7 +2521,7 @@
         <v>16.330400000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>2</v>
       </c>
@@ -2281,7 +2535,7 @@
         <v>15.446300000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -2295,7 +2549,7 @@
         <v>21.485399999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>2</v>
       </c>
@@ -2309,7 +2563,7 @@
         <v>17.824100000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>2</v>
       </c>
@@ -2323,7 +2577,7 @@
         <v>13.9839</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -2337,7 +2591,7 @@
         <v>14.8409</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -2351,7 +2605,7 @@
         <v>12.6494</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -2365,7 +2619,7 @@
         <v>14.612299999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -2379,7 +2633,7 @@
         <v>11.8241</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -2393,7 +2647,7 @@
         <v>16.418199999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -2407,7 +2661,7 @@
         <v>10.379799999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -2421,7 +2675,7 @@
         <v>9.2457700000000003</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -2435,7 +2689,7 @@
         <v>10.909800000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -2449,7 +2703,7 @@
         <v>12.883599999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>9</v>
       </c>
@@ -2463,7 +2717,7 @@
         <v>16.0581</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -2477,7 +2731,7 @@
         <v>17.287700000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -2491,7 +2745,7 @@
         <v>14.7523</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -2505,7 +2759,7 @@
         <v>28.818300000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -2519,7 +2773,7 @@
         <v>15.4153</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -2533,7 +2787,7 @@
         <v>13.67</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>9</v>
       </c>
@@ -2547,7 +2801,7 @@
         <v>14.732200000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -2561,7 +2815,7 @@
         <v>17.2395</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -2575,7 +2829,7 @@
         <v>14.3462</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -2589,7 +2843,7 @@
         <v>13.4938</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -2603,7 +2857,7 @@
         <v>11.446400000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -2617,7 +2871,7 @@
         <v>13.6835</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -2631,7 +2885,7 @@
         <v>11.069699999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -2645,7 +2899,7 @@
         <v>13.7493</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -2659,7 +2913,7 @@
         <v>10.7805</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -2673,7 +2927,7 @@
         <v>11.200900000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -2687,7 +2941,7 @@
         <v>12.4459</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -2701,7 +2955,7 @@
         <v>17.4087</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -2715,7 +2969,7 @@
         <v>269.47800000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>6</v>
       </c>
@@ -2729,7 +2983,7 @@
         <v>26.3748</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>6</v>
       </c>
@@ -2743,7 +2997,7 @@
         <v>28.836200000000002</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -2757,7 +3011,7 @@
         <v>596.745</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>6</v>
       </c>
@@ -2771,7 +3025,7 @@
         <v>10.841100000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -2785,7 +3039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -2799,7 +3053,7 @@
         <v>15.3461</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -2813,7 +3067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -2827,7 +3081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -2841,7 +3095,7 @@
         <v>7.4722600000000003</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>6</v>
       </c>
@@ -2855,7 +3109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -2869,7 +3123,7 @@
         <v>7.71469</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -2883,7 +3137,7 @@
         <v>26.7727</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>6</v>
       </c>
@@ -2897,7 +3151,7 @@
         <v>13.593999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -2911,7 +3165,7 @@
         <v>26.308299999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -2925,7 +3179,7 @@
         <v>20.688700000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -2939,7 +3193,7 @@
         <v>28.0396</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>6</v>
       </c>
@@ -2953,7 +3207,7 @@
         <v>25.236699999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -2967,7 +3221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -2981,7 +3235,7 @@
         <v>93.014899999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -2995,7 +3249,7 @@
         <v>14.486000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -3009,7 +3263,7 @@
         <v>25.971599999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -3023,7 +3277,7 @@
         <v>-48.152000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -3037,7 +3291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -3051,7 +3305,7 @@
         <v>34.629800000000003</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>6</v>
       </c>
@@ -3065,7 +3319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -3079,7 +3333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -3093,7 +3347,7 @@
         <v>25.134799999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -3107,7 +3361,7 @@
         <v>24.385400000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -3121,7 +3375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -3135,7 +3389,7 @@
         <v>13.503399999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -3149,7 +3403,7 @@
         <v>32.618400000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -3163,7 +3417,7 @@
         <v>12.8498</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -3177,7 +3431,7 @@
         <v>17.777200000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -3191,7 +3445,7 @@
         <v>21.8093</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -3205,7 +3459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -3219,7 +3473,7 @@
         <v>10.026199999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -3233,7 +3487,7 @@
         <v>25.279399999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -3247,7 +3501,7 @@
         <v>30.276700000000002</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -3261,7 +3515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -3275,7 +3529,7 @@
         <v>18.454899999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>6</v>
       </c>
@@ -3289,7 +3543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>6</v>
       </c>
@@ -3303,7 +3557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -3317,7 +3571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -3331,7 +3585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -3345,7 +3599,7 @@
         <v>8.28796</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -3359,7 +3613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -3373,7 +3627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -3387,7 +3641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -3401,7 +3655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -3415,7 +3669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -3429,7 +3683,7 @@
         <v>16.666699999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>6</v>
       </c>
@@ -3443,7 +3697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>10</v>
       </c>
@@ -3457,7 +3711,7 @@
         <v>12.2074</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>10</v>
       </c>
@@ -3471,7 +3725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>10</v>
       </c>
@@ -3485,7 +3739,7 @@
         <v>11.108000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>10</v>
       </c>
@@ -3499,7 +3753,7 @@
         <v>12.5761</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -3513,7 +3767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>10</v>
       </c>
@@ -3527,7 +3781,7 @@
         <v>12.8194</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>10</v>
       </c>
@@ -3541,7 +3795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>10</v>
       </c>
@@ -3555,7 +3809,7 @@
         <v>11.9978</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>10</v>
       </c>
@@ -3569,7 +3823,7 @@
         <v>19.060700000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>10</v>
       </c>
@@ -3583,7 +3837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -3597,7 +3851,7 @@
         <v>8.3492800000000003</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>10</v>
       </c>
@@ -3611,7 +3865,7 @@
         <v>35.848599999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>10</v>
       </c>
@@ -3625,7 +3879,7 @@
         <v>7.0586599999999997</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>10</v>
       </c>
@@ -3639,7 +3893,7 @@
         <v>54.177300000000002</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>10</v>
       </c>
@@ -3653,7 +3907,7 @@
         <v>32.4831</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>10</v>
       </c>
@@ -3667,7 +3921,7 @@
         <v>10.463100000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>10</v>
       </c>
@@ -3681,7 +3935,7 @@
         <v>11.321899999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -3695,7 +3949,7 @@
         <v>8.7323500000000003</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -3709,7 +3963,7 @@
         <v>17.522200000000002</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -3723,7 +3977,7 @@
         <v>12.843</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -3737,7 +3991,7 @@
         <v>12.966699999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -3751,7 +4005,7 @@
         <v>11213.5</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>6</v>
       </c>
@@ -3765,7 +4019,7 @@
         <v>73.248900000000006</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>6</v>
       </c>
@@ -3779,7 +4033,7 @@
         <v>17.979600000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>6</v>
       </c>
@@ -3793,7 +4047,7 @@
         <v>994.36900000000003</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -3807,7 +4061,7 @@
         <v>11.316800000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -3821,7 +4075,7 @@
         <v>21.227799999999998</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -3835,7 +4089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -3849,7 +4103,7 @@
         <v>7.8615199999999996</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -3863,7 +4117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>6</v>
       </c>
@@ -3877,7 +4131,7 @@
         <v>25.7577</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>6</v>
       </c>
@@ -3891,7 +4145,7 @@
         <v>13.7643</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>6</v>
       </c>
@@ -3905,7 +4159,7 @@
         <v>33.350700000000003</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -3919,7 +4173,7 @@
         <v>10.463100000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -3933,7 +4187,7 @@
         <v>17.467500000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>6</v>
       </c>
@@ -3947,7 +4201,7 @@
         <v>17.771699999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -3961,7 +4215,7 @@
         <v>13.931900000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>11</v>
       </c>
@@ -3975,7 +4229,7 @@
         <v>19.837199999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -3989,7 +4243,7 @@
         <v>13.3659</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>11</v>
       </c>
@@ -4003,7 +4257,7 @@
         <v>15.557</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -4017,7 +4271,7 @@
         <v>17.729500000000002</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -4031,7 +4285,7 @@
         <v>14.708399999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>11</v>
       </c>
@@ -4045,7 +4299,7 @@
         <v>15.8833</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>11</v>
       </c>
@@ -4059,7 +4313,7 @@
         <v>13.9229</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>11</v>
       </c>
@@ -4073,7 +4327,7 @@
         <v>13.8225</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>11</v>
       </c>
@@ -4087,7 +4341,7 @@
         <v>11.878</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>11</v>
       </c>
@@ -4101,7 +4355,7 @@
         <v>12.3627</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>11</v>
       </c>
@@ -4115,7 +4369,7 @@
         <v>13.297000000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>11</v>
       </c>
@@ -4129,7 +4383,7 @@
         <v>10.0855</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -4143,7 +4397,7 @@
         <v>13.0985</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>11</v>
       </c>
@@ -4157,7 +4411,7 @@
         <v>16.404499999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -4171,7 +4425,7 @@
         <v>12.8668</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>11</v>
       </c>
@@ -4185,7 +4439,7 @@
         <v>10.7552</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>11</v>
       </c>
@@ -4199,7 +4453,7 @@
         <v>8.9252400000000005</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>12</v>
       </c>
@@ -4213,7 +4467,7 @@
         <v>15.948</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>12</v>
       </c>
@@ -4227,7 +4481,7 @@
         <v>15.045500000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>12</v>
       </c>
@@ -4241,7 +4495,7 @@
         <v>15.4404</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -4255,7 +4509,7 @@
         <v>13.8482</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>12</v>
       </c>
@@ -4269,7 +4523,7 @@
         <v>16.391300000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>12</v>
       </c>
@@ -4283,7 +4537,7 @@
         <v>17.189299999999999</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>12</v>
       </c>
@@ -4297,7 +4551,7 @@
         <v>19.575399999999998</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -4311,7 +4565,7 @@
         <v>14.1211</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>12</v>
       </c>
@@ -4325,7 +4579,7 @@
         <v>20.0901</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>12</v>
       </c>
@@ -4339,7 +4593,7 @@
         <v>11.5709</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>12</v>
       </c>
@@ -4353,7 +4607,7 @@
         <v>14.2309</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>12</v>
       </c>
@@ -4367,7 +4621,7 @@
         <v>15.5976</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>12</v>
       </c>
@@ -4381,7 +4635,7 @@
         <v>10.193899999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>12</v>
       </c>
@@ -4395,7 +4649,7 @@
         <v>13.2479</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>12</v>
       </c>
@@ -4409,7 +4663,7 @@
         <v>13.4114</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>12</v>
       </c>
@@ -4423,7 +4677,7 @@
         <v>11.294700000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>12</v>
       </c>
@@ -4437,7 +4691,7 @@
         <v>10.2933</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>12</v>
       </c>
@@ -4451,7 +4705,7 @@
         <v>9.8842400000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>12</v>
       </c>
@@ -4462,10 +4716,10 @@
         <v>1</v>
       </c>
       <c r="D325">
-        <v>15.948</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>12</v>
       </c>
@@ -4476,10 +4730,10 @@
         <v>2</v>
       </c>
       <c r="D326">
-        <v>15.045500000000001</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6">
+        <v>18.53</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -4490,10 +4744,10 @@
         <v>3</v>
       </c>
       <c r="D327">
-        <v>15.4404</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>12</v>
       </c>
@@ -4507,7 +4761,7 @@
         <v>13.8482</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>12</v>
       </c>
@@ -4518,10 +4772,10 @@
         <v>5</v>
       </c>
       <c r="D329">
-        <v>16.391300000000001</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>12</v>
       </c>
@@ -4532,10 +4786,10 @@
         <v>6</v>
       </c>
       <c r="D330">
-        <v>17.189299999999999</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
+        <v>15.51</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>12</v>
       </c>
@@ -4546,10 +4800,10 @@
         <v>7</v>
       </c>
       <c r="D331">
-        <v>19.575399999999998</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
+        <v>17.670000000000002</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>12</v>
       </c>
@@ -4560,10 +4814,10 @@
         <v>8</v>
       </c>
       <c r="D332">
-        <v>14.1211</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>12</v>
       </c>
@@ -4574,10 +4828,10 @@
         <v>9</v>
       </c>
       <c r="D333">
-        <v>20.0901</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
+        <v>17.96</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>12</v>
       </c>
@@ -4588,10 +4842,10 @@
         <v>10</v>
       </c>
       <c r="D334">
-        <v>11.5709</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6">
+        <v>13.305999999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -4602,10 +4856,10 @@
         <v>11</v>
       </c>
       <c r="D335">
-        <v>14.2309</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6">
+        <v>11.561999999999999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>12</v>
       </c>
@@ -4616,10 +4870,10 @@
         <v>12</v>
       </c>
       <c r="D336">
-        <v>15.5976</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
+        <v>15.836</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>12</v>
       </c>
@@ -4630,10 +4884,10 @@
         <v>13</v>
       </c>
       <c r="D337">
-        <v>10.193899999999999</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
+        <v>17.867000000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>12</v>
       </c>
@@ -4644,10 +4898,10 @@
         <v>14</v>
       </c>
       <c r="D338">
-        <v>13.2479</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
+        <v>12.952</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>12</v>
       </c>
@@ -4658,10 +4912,10 @@
         <v>15</v>
       </c>
       <c r="D339">
-        <v>13.4114</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
+        <v>10.904</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>12</v>
       </c>
@@ -4672,10 +4926,10 @@
         <v>16</v>
       </c>
       <c r="D340">
-        <v>11.294700000000001</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
+        <v>10.385</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>12</v>
       </c>
@@ -4686,10 +4940,10 @@
         <v>17</v>
       </c>
       <c r="D341">
-        <v>10.2933</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
+        <v>10.928000000000001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>12</v>
       </c>
@@ -4700,10 +4954,10 @@
         <v>18</v>
       </c>
       <c r="D342">
-        <v>9.8842400000000001</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
+        <v>10.872999999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>12</v>
       </c>
@@ -4717,7 +4971,7 @@
         <v>12.918200000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>12</v>
       </c>
@@ -4728,10 +4982,10 @@
         <v>2</v>
       </c>
       <c r="D345">
-        <v>15.359999999999999</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>12</v>
       </c>
@@ -4745,7 +4999,7 @@
         <v>15.8476</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>12</v>
       </c>
@@ -4759,7 +5013,7 @@
         <v>14.036</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>12</v>
       </c>
@@ -4773,7 +5027,7 @@
         <v>15.892300000000001</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>12</v>
       </c>
@@ -4787,7 +5041,7 @@
         <v>14.445499999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>12</v>
       </c>
@@ -4801,7 +5055,7 @@
         <v>15.3629</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>12</v>
       </c>
@@ -4815,7 +5069,7 @@
         <v>17.8855</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>12</v>
       </c>
@@ -4829,7 +5083,7 @@
         <v>20.1691</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>12</v>
       </c>
@@ -4843,7 +5097,7 @@
         <v>11.8941</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>12</v>
       </c>
@@ -4857,7 +5111,7 @@
         <v>12.1617</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>12</v>
       </c>
@@ -4871,7 +5125,7 @@
         <v>15.163399999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>12</v>
       </c>
@@ -4885,7 +5139,7 @@
         <v>10.8611</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>12</v>
       </c>
@@ -4899,7 +5153,7 @@
         <v>9.8762699999999999</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>12</v>
       </c>
@@ -4913,7 +5167,7 @@
         <v>9.8949700000000007</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>12</v>
       </c>
@@ -4927,7 +5181,7 @@
         <v>12.6393</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>12</v>
       </c>
@@ -4941,7 +5195,7 @@
         <v>9.9438099999999991</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>12</v>
       </c>
@@ -4955,7 +5209,7 @@
         <v>8.8069199999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>12</v>
       </c>
@@ -4969,7 +5223,7 @@
         <v>12.9551</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>12</v>
       </c>
@@ -4983,7 +5237,7 @@
         <v>17.5868</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
         <v>12</v>
       </c>
@@ -4997,7 +5251,7 @@
         <v>14.0106</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
         <v>12</v>
       </c>
@@ -5011,7 +5265,7 @@
         <v>14.249000000000001</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>12</v>
       </c>
@@ -5025,7 +5279,7 @@
         <v>16.462299999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>12</v>
       </c>
@@ -5039,7 +5293,7 @@
         <v>16.762899999999998</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
         <v>12</v>
       </c>
@@ -5053,7 +5307,7 @@
         <v>15.2347</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>12</v>
       </c>
@@ -5067,7 +5321,7 @@
         <v>18.249700000000001</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
         <v>12</v>
       </c>
@@ -5081,7 +5335,7 @@
         <v>17.624400000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
         <v>12</v>
       </c>
@@ -5095,7 +5349,7 @@
         <v>13.901199999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
         <v>12</v>
       </c>
@@ -5109,7 +5363,7 @@
         <v>13.5641</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>12</v>
       </c>
@@ -5123,7 +5377,7 @@
         <v>12.091799999999999</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
         <v>12</v>
       </c>
@@ -5137,7 +5391,7 @@
         <v>11.0846</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
         <v>12</v>
       </c>
@@ -5151,7 +5405,7 @@
         <v>13.0161</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>12</v>
       </c>
@@ -5165,7 +5419,7 @@
         <v>13.2349</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>12</v>
       </c>
@@ -5179,7 +5433,7 @@
         <v>11.988</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
         <v>12</v>
       </c>
@@ -5193,7 +5447,7 @@
         <v>10.3041</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
         <v>12</v>
       </c>
@@ -5207,7 +5461,7 @@
         <v>10.1191</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>12</v>
       </c>
@@ -5221,7 +5475,7 @@
         <v>12.4733</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:4">
       <c r="A383" t="s">
         <v>12</v>
       </c>
@@ -5235,7 +5489,7 @@
         <v>17.922699999999999</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:4">
       <c r="A384" t="s">
         <v>12</v>
       </c>
@@ -5249,7 +5503,7 @@
         <v>15.294</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>12</v>
       </c>
@@ -5263,7 +5517,7 @@
         <v>15.856400000000001</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>12</v>
       </c>
@@ -5277,7 +5531,7 @@
         <v>17.4498</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
         <v>12</v>
       </c>
@@ -5291,7 +5545,7 @@
         <v>19.335100000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>12</v>
       </c>
@@ -5305,7 +5559,7 @@
         <v>15.4101</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>12</v>
       </c>
@@ -5319,7 +5573,7 @@
         <v>16.7395</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>12</v>
       </c>
@@ -5333,7 +5587,7 @@
         <v>16.654399999999999</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>12</v>
       </c>
@@ -5347,7 +5601,7 @@
         <v>12.4796</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>12</v>
       </c>
@@ -5361,7 +5615,7 @@
         <v>12.220599999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>12</v>
       </c>
@@ -5375,7 +5629,7 @@
         <v>11.260999999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>12</v>
       </c>
@@ -5389,7 +5643,7 @@
         <v>12.5158</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>12</v>
       </c>
@@ -5403,7 +5657,7 @@
         <v>13.293900000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>12</v>
       </c>
@@ -5417,7 +5671,7 @@
         <v>13.532299999999999</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>12</v>
       </c>
@@ -5431,7 +5685,7 @@
         <v>9.8732199999999999</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>12</v>
       </c>
@@ -5445,7 +5699,7 @@
         <v>10.2791</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>12</v>
       </c>
@@ -5459,7 +5713,7 @@
         <v>10.0777</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>7</v>
       </c>
@@ -5473,7 +5727,7 @@
         <v>11.5922</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>7</v>
       </c>
@@ -5487,7 +5741,7 @@
         <v>13.0527</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -5501,7 +5755,7 @@
         <v>13.543200000000001</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>7</v>
       </c>
@@ -5515,7 +5769,7 @@
         <v>23.151199999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -5529,7 +5783,7 @@
         <v>15.0725</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>7</v>
       </c>
@@ -5543,7 +5797,7 @@
         <v>11.5722</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -5557,7 +5811,7 @@
         <v>14.0518</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -5571,7 +5825,7 @@
         <v>14.996499999999999</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -5585,7 +5839,7 @@
         <v>13.4033</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>7</v>
       </c>
@@ -5599,7 +5853,7 @@
         <v>13.3483</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>7</v>
       </c>
@@ -5613,7 +5867,7 @@
         <v>12.758800000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
         <v>7</v>
       </c>
@@ -5627,7 +5881,7 @@
         <v>10.251200000000001</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>7</v>
       </c>
@@ -5641,7 +5895,7 @@
         <v>9.5784199999999995</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>7</v>
       </c>
@@ -5655,7 +5909,7 @@
         <v>11.9922</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
         <v>7</v>
       </c>
@@ -5669,7 +5923,7 @@
         <v>9.9459300000000006</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
         <v>7</v>
       </c>
@@ -5683,7 +5937,7 @@
         <v>9.5752199999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -5697,7 +5951,7 @@
         <v>9.5303699999999996</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -5711,7 +5965,7 @@
         <v>13.861800000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
         <v>7</v>
       </c>
@@ -5725,7 +5979,7 @@
         <v>12.2492</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
         <v>7</v>
       </c>
@@ -5739,7 +5993,7 @@
         <v>13.081</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:4">
       <c r="A422" t="s">
         <v>7</v>
       </c>
@@ -5753,7 +6007,7 @@
         <v>15.0877</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:4">
       <c r="A423" t="s">
         <v>7</v>
       </c>
@@ -5767,7 +6021,7 @@
         <v>21.309799999999999</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:4">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -5781,7 +6035,7 @@
         <v>13.2195</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:4">
       <c r="A425" t="s">
         <v>7</v>
       </c>
@@ -5795,7 +6049,7 @@
         <v>11.9657</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:4">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -5809,7 +6063,7 @@
         <v>15.716699999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:4">
       <c r="A427" t="s">
         <v>7</v>
       </c>
@@ -5823,7 +6077,7 @@
         <v>16.839200000000002</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:4">
       <c r="A428" t="s">
         <v>7</v>
       </c>
@@ -5837,7 +6091,7 @@
         <v>12.7456</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:4">
       <c r="A429" t="s">
         <v>7</v>
       </c>
@@ -5851,7 +6105,7 @@
         <v>11.024800000000001</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:4">
       <c r="A430" t="s">
         <v>7</v>
       </c>
@@ -5865,7 +6119,7 @@
         <v>13.619199999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:4">
       <c r="A431" t="s">
         <v>7</v>
       </c>
@@ -5879,7 +6133,7 @@
         <v>10.1973</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:4">
       <c r="A432" t="s">
         <v>7</v>
       </c>
@@ -5893,7 +6147,7 @@
         <v>11.2346</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:4">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -5907,7 +6161,7 @@
         <v>10.8894</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:4">
       <c r="A434" t="s">
         <v>7</v>
       </c>
@@ -5921,7 +6175,7 @@
         <v>10.0869</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:4">
       <c r="A435" t="s">
         <v>7</v>
       </c>
@@ -5935,7 +6189,7 @@
         <v>9.9980799999999999</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:4">
       <c r="A436" t="s">
         <v>7</v>
       </c>
@@ -5949,7 +6203,7 @@
         <v>9.3447099999999992</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:4">
       <c r="A437" t="s">
         <v>7</v>
       </c>
@@ -5963,7 +6217,7 @@
         <v>11.4306</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:4">
       <c r="A439" t="s">
         <v>7</v>
       </c>
@@ -5977,7 +6231,7 @@
         <v>11.2639</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:4">
       <c r="A440" t="s">
         <v>7</v>
       </c>
@@ -5991,7 +6245,7 @@
         <v>13.616400000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:4">
       <c r="A441" t="s">
         <v>7</v>
       </c>
@@ -6005,7 +6259,7 @@
         <v>13.541700000000001</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:4">
       <c r="A442" t="s">
         <v>7</v>
       </c>
@@ -6019,7 +6273,7 @@
         <v>20.517700000000001</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:4">
       <c r="A443" t="s">
         <v>7</v>
       </c>
@@ -6033,7 +6287,7 @@
         <v>13.7049</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:4">
       <c r="A444" t="s">
         <v>7</v>
       </c>
@@ -6047,7 +6301,7 @@
         <v>11.974399999999999</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:4">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -6061,7 +6315,7 @@
         <v>14.6563</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:4">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -6075,7 +6329,7 @@
         <v>13.187200000000001</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:4">
       <c r="A447" t="s">
         <v>7</v>
       </c>
@@ -6089,7 +6343,7 @@
         <v>14.4871</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:4">
       <c r="A448" t="s">
         <v>7</v>
       </c>
@@ -6103,7 +6357,7 @@
         <v>11.3657</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:4">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -6117,7 +6371,7 @@
         <v>13.6564</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:4">
       <c r="A450" t="s">
         <v>7</v>
       </c>
@@ -6131,7 +6385,7 @@
         <v>12.8872</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:4">
       <c r="A451" t="s">
         <v>7</v>
       </c>
@@ -6145,7 +6399,7 @@
         <v>10.045999999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:4">
       <c r="A452" t="s">
         <v>7</v>
       </c>
@@ -6159,7 +6413,7 @@
         <v>9.8392400000000002</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:4">
       <c r="A453" t="s">
         <v>7</v>
       </c>
@@ -6173,7 +6427,7 @@
         <v>8.9877699999999994</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:4">
       <c r="A454" t="s">
         <v>7</v>
       </c>
@@ -6187,7 +6441,7 @@
         <v>8.7243899999999996</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:4">
       <c r="A455" t="s">
         <v>7</v>
       </c>
@@ -6201,7 +6455,7 @@
         <v>9.0866399999999992</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:4">
       <c r="A456" t="s">
         <v>7</v>
       </c>
@@ -6215,7 +6469,7 @@
         <v>9.4059699999999999</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:4">
       <c r="A458" t="s">
         <v>7</v>
       </c>
@@ -6229,7 +6483,7 @@
         <v>11.3912</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:4">
       <c r="A459" t="s">
         <v>7</v>
       </c>
@@ -6243,7 +6497,7 @@
         <v>12.559699999999999</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:4">
       <c r="A460" t="s">
         <v>7</v>
       </c>
@@ -6257,7 +6511,7 @@
         <v>13.029400000000001</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:4">
       <c r="A461" t="s">
         <v>7</v>
       </c>
@@ -6271,7 +6525,7 @@
         <v>18.8185</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:4">
       <c r="A462" t="s">
         <v>7</v>
       </c>
@@ -6285,7 +6539,7 @@
         <v>12.4788</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:4">
       <c r="A463" t="s">
         <v>7</v>
       </c>
@@ -6299,7 +6553,7 @@
         <v>11.296900000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:4">
       <c r="A464" t="s">
         <v>7</v>
       </c>
@@ -6313,7 +6567,7 @@
         <v>13.523099999999999</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:4">
       <c r="A465" t="s">
         <v>7</v>
       </c>
@@ -6327,7 +6581,7 @@
         <v>15.129200000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:4">
       <c r="A466" t="s">
         <v>7</v>
       </c>
@@ -6341,7 +6595,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:4">
       <c r="A467" t="s">
         <v>7</v>
       </c>
@@ -6355,7 +6609,7 @@
         <v>10.5695</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:4">
       <c r="A468" t="s">
         <v>7</v>
       </c>
@@ -6369,7 +6623,7 @@
         <v>11.2371</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:4">
       <c r="A469" t="s">
         <v>7</v>
       </c>
@@ -6383,7 +6637,7 @@
         <v>11.019600000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:4">
       <c r="A470" t="s">
         <v>7</v>
       </c>
@@ -6397,7 +6651,7 @@
         <v>9.3494299999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:4">
       <c r="A471" t="s">
         <v>7</v>
       </c>
@@ -6411,7 +6665,7 @@
         <v>10.694100000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:4">
       <c r="A472" t="s">
         <v>7</v>
       </c>
@@ -6425,7 +6679,7 @@
         <v>9.7749799999999993</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:4">
       <c r="A473" t="s">
         <v>7</v>
       </c>
@@ -6439,7 +6693,7 @@
         <v>9.1308000000000007</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:4">
       <c r="A474" t="s">
         <v>7</v>
       </c>
@@ -6453,7 +6707,7 @@
         <v>8.7883800000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:4">
       <c r="A475" t="s">
         <v>7</v>
       </c>
@@ -6467,7 +6721,7 @@
         <v>10.285299999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:4">
       <c r="A477" t="s">
         <v>13</v>
       </c>
@@ -6481,7 +6735,7 @@
         <v>14.1119</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:4">
       <c r="A478" t="s">
         <v>13</v>
       </c>
@@ -6495,7 +6749,7 @@
         <v>14.7273</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:4">
       <c r="A479" t="s">
         <v>13</v>
       </c>
@@ -6509,7 +6763,7 @@
         <v>13.490399999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:4">
       <c r="A480" t="s">
         <v>13</v>
       </c>
@@ -6523,7 +6777,7 @@
         <v>12.398</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:4">
       <c r="A481" t="s">
         <v>13</v>
       </c>
@@ -6537,7 +6791,7 @@
         <v>12.6754</v>
       </c>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="1:4">
       <c r="A482" t="s">
         <v>13</v>
       </c>
@@ -6551,7 +6805,7 @@
         <v>14.610900000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:4">
       <c r="A483" t="s">
         <v>13</v>
       </c>
@@ -6565,7 +6819,7 @@
         <v>13.7029</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:4">
       <c r="A484" t="s">
         <v>13</v>
       </c>
@@ -6579,7 +6833,7 @@
         <v>15.5997</v>
       </c>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:4">
       <c r="A485" t="s">
         <v>13</v>
       </c>
@@ -6593,7 +6847,7 @@
         <v>11.512600000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:4">
       <c r="A486" t="s">
         <v>13</v>
       </c>
@@ -6607,7 +6861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:4">
       <c r="A487" t="s">
         <v>13</v>
       </c>
@@ -6621,7 +6875,7 @@
         <v>11.3024</v>
       </c>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:4">
       <c r="A488" t="s">
         <v>13</v>
       </c>
@@ -6635,7 +6889,7 @@
         <v>11.6524</v>
       </c>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:4">
       <c r="A489" t="s">
         <v>13</v>
       </c>
@@ -6649,7 +6903,7 @@
         <v>11.724299999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:4">
       <c r="A490" t="s">
         <v>13</v>
       </c>
@@ -6663,7 +6917,7 @@
         <v>11.642099999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:4">
       <c r="A491" t="s">
         <v>13</v>
       </c>
@@ -6677,7 +6931,7 @@
         <v>9.3378499999999995</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:4">
       <c r="A492" t="s">
         <v>13</v>
       </c>
@@ -6691,7 +6945,7 @@
         <v>11.3079</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:4">
       <c r="A493" t="s">
         <v>13</v>
       </c>
@@ -6705,7 +6959,7 @@
         <v>11.448700000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:4">
       <c r="A494" t="s">
         <v>13</v>
       </c>
@@ -6719,7 +6973,7 @@
         <v>9.1279199999999996</v>
       </c>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:4">
       <c r="A496" t="s">
         <v>13</v>
       </c>
@@ -6733,7 +6987,7 @@
         <v>13.8948</v>
       </c>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:4">
       <c r="A497" t="s">
         <v>13</v>
       </c>
@@ -6747,7 +7001,7 @@
         <v>13.1487</v>
       </c>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:4">
       <c r="A498" t="s">
         <v>13</v>
       </c>
@@ -6761,7 +7015,7 @@
         <v>14.141299999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:4">
       <c r="A499" t="s">
         <v>13</v>
       </c>
@@ -6775,7 +7029,7 @@
         <v>13.3398</v>
       </c>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:4">
       <c r="A500" t="s">
         <v>13</v>
       </c>
@@ -6789,7 +7043,7 @@
         <v>12.188599999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:4">
       <c r="A501" t="s">
         <v>13</v>
       </c>
@@ -6803,7 +7057,7 @@
         <v>15.1561</v>
       </c>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:4">
       <c r="A502" t="s">
         <v>13</v>
       </c>
@@ -6817,7 +7071,7 @@
         <v>18.3368</v>
       </c>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503" spans="1:4">
       <c r="A503" t="s">
         <v>13</v>
       </c>
@@ -6831,7 +7085,7 @@
         <v>12.379300000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:6">
+    <row r="504" spans="1:4">
       <c r="A504" t="s">
         <v>13</v>
       </c>
@@ -6845,7 +7099,7 @@
         <v>12.208299999999999</v>
       </c>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505" spans="1:4">
       <c r="A505" t="s">
         <v>13</v>
       </c>
@@ -6859,7 +7113,7 @@
         <v>13.344799999999999</v>
       </c>
     </row>
-    <row r="506" spans="1:6">
+    <row r="506" spans="1:4">
       <c r="A506" t="s">
         <v>13</v>
       </c>
@@ -6870,10 +7124,10 @@
         <v>11</v>
       </c>
       <c r="D506">
-        <v>12.199999999999999</v>
-      </c>
-    </row>
-    <row r="507" spans="1:6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
       <c r="A507" t="s">
         <v>13</v>
       </c>
@@ -6887,7 +7141,7 @@
         <v>12.2294</v>
       </c>
     </row>
-    <row r="508" spans="1:6">
+    <row r="508" spans="1:4">
       <c r="A508" t="s">
         <v>13</v>
       </c>
@@ -6901,7 +7155,7 @@
         <v>12.3292</v>
       </c>
     </row>
-    <row r="509" spans="1:6">
+    <row r="509" spans="1:4">
       <c r="A509" t="s">
         <v>13</v>
       </c>
@@ -6915,7 +7169,7 @@
         <v>12.7102</v>
       </c>
     </row>
-    <row r="510" spans="1:6">
+    <row r="510" spans="1:4">
       <c r="A510" t="s">
         <v>13</v>
       </c>
@@ -6929,7 +7183,7 @@
         <v>12.9788</v>
       </c>
     </row>
-    <row r="511" spans="1:6">
+    <row r="511" spans="1:4">
       <c r="A511" t="s">
         <v>13</v>
       </c>
@@ -6943,7 +7197,7 @@
         <v>10.7212</v>
       </c>
     </row>
-    <row r="512" spans="1:6">
+    <row r="512" spans="1:4">
       <c r="A512" t="s">
         <v>13</v>
       </c>
@@ -6957,7 +7211,7 @@
         <v>13.2272</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:4">
       <c r="A513" t="s">
         <v>13</v>
       </c>
@@ -6971,7 +7225,7 @@
         <v>7.7503900000000003</v>
       </c>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515" spans="1:4">
       <c r="A515" t="s">
         <v>13</v>
       </c>
@@ -6985,7 +7239,7 @@
         <v>13.8003</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516" spans="1:4">
       <c r="A516" t="s">
         <v>13</v>
       </c>
@@ -6999,7 +7253,7 @@
         <v>13.700699999999999</v>
       </c>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517" spans="1:4">
       <c r="A517" t="s">
         <v>13</v>
       </c>
@@ -7013,7 +7267,7 @@
         <v>11.8924</v>
       </c>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518" spans="1:4">
       <c r="A518" t="s">
         <v>13</v>
       </c>
@@ -7027,7 +7281,7 @@
         <v>12.1319</v>
       </c>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519" spans="1:4">
       <c r="A519" t="s">
         <v>13</v>
       </c>
@@ -7041,7 +7295,7 @@
         <v>12.3552</v>
       </c>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520" spans="1:4">
       <c r="A520" t="s">
         <v>13</v>
       </c>
@@ -7055,7 +7309,7 @@
         <v>14.0207</v>
       </c>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521" spans="1:4">
       <c r="A521" t="s">
         <v>13</v>
       </c>
@@ -7069,7 +7323,7 @@
         <v>13.843400000000001</v>
       </c>
     </row>
-    <row r="522" spans="1:6">
+    <row r="522" spans="1:4">
       <c r="A522" t="s">
         <v>13</v>
       </c>
@@ -7083,7 +7337,7 @@
         <v>12.202199999999999</v>
       </c>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523" spans="1:4">
       <c r="A523" t="s">
         <v>13</v>
       </c>
@@ -7097,7 +7351,7 @@
         <v>11.2653</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524" spans="1:4">
       <c r="A524" t="s">
         <v>13</v>
       </c>
@@ -7111,7 +7365,7 @@
         <v>13.4962</v>
       </c>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" spans="1:4">
       <c r="A525" t="s">
         <v>13</v>
       </c>
@@ -7125,7 +7379,7 @@
         <v>11.3246</v>
       </c>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526" spans="1:4">
       <c r="A526" t="s">
         <v>13</v>
       </c>
@@ -7139,7 +7393,7 @@
         <v>12.7698</v>
       </c>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527" spans="1:4">
       <c r="A527" t="s">
         <v>13</v>
       </c>
@@ -7153,7 +7407,7 @@
         <v>12.1119</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" spans="1:4">
       <c r="A528" t="s">
         <v>13</v>
       </c>
@@ -7167,7 +7421,7 @@
         <v>11.5594</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" spans="1:4">
       <c r="A529" t="s">
         <v>13</v>
       </c>
@@ -7181,7 +7435,7 @@
         <v>10.2592</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" spans="1:4">
       <c r="A530" t="s">
         <v>13</v>
       </c>
@@ -7195,7 +7449,7 @@
         <v>12.0686</v>
       </c>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" spans="1:4">
       <c r="A531" t="s">
         <v>13</v>
       </c>
@@ -7209,7 +7463,7 @@
         <v>13.124700000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" spans="1:4">
       <c r="A532" t="s">
         <v>13</v>
       </c>
@@ -7223,7 +7477,7 @@
         <v>9.8891600000000004</v>
       </c>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" spans="1:4">
       <c r="A534" t="s">
         <v>13</v>
       </c>
@@ -7237,7 +7491,7 @@
         <v>13.7249</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" spans="1:4">
       <c r="A535" t="s">
         <v>13</v>
       </c>
@@ -7251,7 +7505,7 @@
         <v>13.1487</v>
       </c>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" spans="1:4">
       <c r="A536" t="s">
         <v>13</v>
       </c>
@@ -7265,7 +7519,7 @@
         <v>11.412599999999999</v>
       </c>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" spans="1:4">
       <c r="A537" t="s">
         <v>13</v>
       </c>
@@ -7279,7 +7533,7 @@
         <v>12.535399999999999</v>
       </c>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" spans="1:4">
       <c r="A538" t="s">
         <v>13</v>
       </c>
@@ -7293,7 +7547,7 @@
         <v>12.3705</v>
       </c>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539" spans="1:4">
       <c r="A539" t="s">
         <v>13</v>
       </c>
@@ -7307,7 +7561,7 @@
         <v>14.2385</v>
       </c>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" spans="1:4">
       <c r="A540" t="s">
         <v>13</v>
       </c>
@@ -7321,7 +7575,7 @@
         <v>12.564500000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" spans="1:4">
       <c r="A541" t="s">
         <v>13</v>
       </c>
@@ -7335,7 +7589,7 @@
         <v>12.8515</v>
       </c>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" spans="1:4">
       <c r="A542" t="s">
         <v>13</v>
       </c>
@@ -7349,7 +7603,7 @@
         <v>12.041399999999999</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" spans="1:4">
       <c r="A543" t="s">
         <v>13</v>
       </c>
@@ -7363,7 +7617,7 @@
         <v>13.0084</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:4">
       <c r="A544" t="s">
         <v>13</v>
       </c>
@@ -7377,7 +7631,7 @@
         <v>11.9619</v>
       </c>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545" spans="1:4">
       <c r="A545" t="s">
         <v>13</v>
       </c>
@@ -7391,7 +7645,7 @@
         <v>11.822699999999999</v>
       </c>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546" spans="1:4">
       <c r="A546" t="s">
         <v>13</v>
       </c>
@@ -7405,7 +7659,7 @@
         <v>12.3436</v>
       </c>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547" spans="1:4">
       <c r="A547" t="s">
         <v>13</v>
       </c>
@@ -7419,7 +7673,7 @@
         <v>12.661199999999999</v>
       </c>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548" spans="1:4">
       <c r="A548" t="s">
         <v>13</v>
       </c>
@@ -7433,7 +7687,7 @@
         <v>10.297000000000001</v>
       </c>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549" spans="1:4">
       <c r="A549" t="s">
         <v>13</v>
       </c>
@@ -7447,7 +7701,7 @@
         <v>11.315300000000001</v>
       </c>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" spans="1:4">
       <c r="A550" t="s">
         <v>13</v>
       </c>
@@ -7461,7 +7715,7 @@
         <v>12.827999999999999</v>
       </c>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" spans="1:4">
       <c r="A551" t="s">
         <v>13</v>
       </c>
@@ -7475,7 +7729,7 @@
         <v>11.2811</v>
       </c>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553" spans="1:4">
       <c r="A553" t="s">
         <v>13</v>
       </c>
@@ -7489,7 +7743,7 @@
         <v>14.347099999999999</v>
       </c>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554" spans="1:4">
       <c r="A554" t="s">
         <v>13</v>
       </c>
@@ -7503,7 +7757,7 @@
         <v>14.5151</v>
       </c>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" spans="1:4">
       <c r="A555" t="s">
         <v>13</v>
       </c>
@@ -7517,7 +7771,7 @@
         <v>17.181000000000001</v>
       </c>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556" spans="1:4">
       <c r="A556" t="s">
         <v>13</v>
       </c>
@@ -7531,7 +7785,7 @@
         <v>12.914300000000001</v>
       </c>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557" spans="1:4">
       <c r="A557" t="s">
         <v>13</v>
       </c>
@@ -7545,7 +7799,7 @@
         <v>13.347899999999999</v>
       </c>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" spans="1:4">
       <c r="A558" t="s">
         <v>13</v>
       </c>
@@ -7559,7 +7813,7 @@
         <v>14.132300000000001</v>
       </c>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" spans="1:4">
       <c r="A559" t="s">
         <v>13</v>
       </c>
@@ -7573,7 +7827,7 @@
         <v>13.935</v>
       </c>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" spans="1:4">
       <c r="A560" t="s">
         <v>13</v>
       </c>
@@ -7587,7 +7841,7 @@
         <v>14.5085</v>
       </c>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561" spans="1:4">
       <c r="A561" t="s">
         <v>13</v>
       </c>
@@ -7601,7 +7855,7 @@
         <v>12.4803</v>
       </c>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" spans="1:4">
       <c r="A562" t="s">
         <v>13</v>
       </c>
@@ -7615,7 +7869,7 @@
         <v>13.3599</v>
       </c>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563" spans="1:4">
       <c r="A563" t="s">
         <v>13</v>
       </c>
@@ -7629,7 +7883,7 @@
         <v>12.3032</v>
       </c>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" spans="1:4">
       <c r="A564" t="s">
         <v>13</v>
       </c>
@@ -7643,7 +7897,7 @@
         <v>11.764200000000001</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:4">
       <c r="A565" t="s">
         <v>13</v>
       </c>
@@ -7657,7 +7911,7 @@
         <v>12.8498</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" spans="1:4">
       <c r="A566" t="s">
         <v>13</v>
       </c>
@@ -7671,7 +7925,7 @@
         <v>12.7102</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567" spans="1:4">
       <c r="A567" t="s">
         <v>13</v>
       </c>
@@ -7685,7 +7939,7 @@
         <v>11.8818</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:4">
       <c r="A568" t="s">
         <v>13</v>
       </c>
@@ -7699,7 +7953,7 @@
         <v>13.315899999999999</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:4">
       <c r="A569" t="s">
         <v>13</v>
       </c>
@@ -7713,7 +7967,7 @@
         <v>13.124700000000001</v>
       </c>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570" spans="1:4">
       <c r="A570" t="s">
         <v>13</v>
       </c>
@@ -7729,65 +7983,8 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
-  </cols>
-  <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
-  </cols>
-  <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageSetup paperSize="9" orientation="portrait" cellComments="asDisplayed"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
